--- a/dataExcel/【法玛斯（StatTrak™） _ 目皆转睛 (久经沙场)】Buff近1个月-总览.xlsx
+++ b/dataExcel/【法玛斯（StatTrak™） _ 目皆转睛 (久经沙场)】Buff近1个月-总览.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F209"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,119 +422,119 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2023-09-16 05:39:09</v>
+        <v>2023-09-17 22:13:01</v>
       </c>
       <c r="B8">
-        <v>21.54</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>31.14</v>
+        <v>28.01</v>
       </c>
       <c r="D8">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E8">
-        <v>20.3</v>
+        <v>21.4</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2023-09-16 09:28:21</v>
+        <v>2023-09-18 01:49:19</v>
       </c>
       <c r="B9">
-        <v>21.9</v>
+        <v>21.28</v>
       </c>
       <c r="C9">
-        <v>33.68</v>
+        <v>27.35</v>
       </c>
       <c r="D9">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E9">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="F9">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2023-09-16 13:04:55</v>
+        <v>2023-09-18 05:30:30</v>
       </c>
       <c r="B10">
-        <v>22.38</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>29.75</v>
+        <v>28.01</v>
       </c>
       <c r="D10">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E10">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="F10">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2023-09-16 16:50:05</v>
+        <v>2023-09-18 09:14:29</v>
       </c>
       <c r="B11">
-        <v>21.5</v>
+        <v>21.19</v>
       </c>
       <c r="C11">
-        <v>28.23</v>
+        <v>29.02</v>
       </c>
       <c r="D11">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E11">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="F11">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2023-09-16 20:39:06</v>
+        <v>2023-09-18 12:49:45</v>
       </c>
       <c r="B12">
-        <v>21.97</v>
+        <v>21.19</v>
       </c>
       <c r="C12">
-        <v>29.32</v>
+        <v>28.22</v>
       </c>
       <c r="D12">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E12">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="F12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2023-09-17 00:16:09</v>
+        <v>2023-09-18 16:34:40</v>
       </c>
       <c r="B13">
-        <v>21.94</v>
+        <v>20.88</v>
       </c>
       <c r="C13">
-        <v>26.04</v>
+        <v>28.22</v>
       </c>
       <c r="D13">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E13">
-        <v>21.4</v>
+        <v>20.39</v>
       </c>
       <c r="F13">
         <v>24</v>
@@ -542,299 +542,299 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2023-09-17 03:53:26</v>
+        <v>2023-09-18 20:14:15</v>
       </c>
       <c r="B14">
-        <v>21.94</v>
+        <v>20.88</v>
       </c>
       <c r="C14">
-        <v>29.32</v>
+        <v>28.22</v>
       </c>
       <c r="D14">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E14">
-        <v>21.4</v>
+        <v>20.39</v>
       </c>
       <c r="F14">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2023-09-17 07:34:43</v>
+        <v>2023-09-18 23:53:20</v>
       </c>
       <c r="B15">
-        <v>21.95</v>
+        <v>20.46</v>
       </c>
       <c r="C15">
-        <v>28.15</v>
+        <v>28.22</v>
       </c>
       <c r="D15">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15">
-        <v>21.4</v>
+        <v>20.39</v>
       </c>
       <c r="F15">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2023-09-17 11:15:29</v>
+        <v>2023-09-19 00:01:16</v>
       </c>
       <c r="B16">
-        <v>21.11</v>
+        <v>20.46</v>
       </c>
       <c r="C16">
-        <v>27.93</v>
+        <v>28.22</v>
       </c>
       <c r="D16">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E16">
-        <v>21.4</v>
+        <v>20.39</v>
       </c>
       <c r="F16">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2023-09-17 14:55:29</v>
+        <v>2023-09-19 03:37:18</v>
       </c>
       <c r="B17">
-        <v>21.64</v>
+        <v>20.55</v>
       </c>
       <c r="C17">
-        <v>29.1</v>
+        <v>29.02</v>
       </c>
       <c r="D17">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E17">
-        <v>21.4</v>
+        <v>20.39</v>
       </c>
       <c r="F17">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2023-09-17 18:35:14</v>
+        <v>2023-09-19 07:15:59</v>
       </c>
       <c r="B18">
-        <v>21.64</v>
+        <v>20.88</v>
       </c>
       <c r="C18">
-        <v>28.01</v>
+        <v>26.84</v>
       </c>
       <c r="D18">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E18">
-        <v>21.4</v>
+        <v>20.39</v>
       </c>
       <c r="F18">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2023-09-17 22:13:01</v>
+        <v>2023-09-19 10:52:22</v>
       </c>
       <c r="B19">
-        <v>21</v>
+        <v>20.88</v>
       </c>
       <c r="C19">
-        <v>28.01</v>
+        <v>26.84</v>
       </c>
       <c r="D19">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E19">
-        <v>21.4</v>
+        <v>20.39</v>
       </c>
       <c r="F19">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2023-09-18 01:49:19</v>
+        <v>2023-09-19 14:27:46</v>
       </c>
       <c r="B20">
-        <v>21.28</v>
+        <v>20.88</v>
       </c>
       <c r="C20">
-        <v>27.35</v>
+        <v>26.84</v>
       </c>
       <c r="D20">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E20">
-        <v>21.3</v>
+        <v>20.39</v>
       </c>
       <c r="F20">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2023-09-18 05:30:30</v>
+        <v>2023-09-19 18:08:51</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="C21">
-        <v>28.01</v>
+        <v>26.84</v>
       </c>
       <c r="D21">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E21">
-        <v>21.3</v>
+        <v>20.3</v>
       </c>
       <c r="F21">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2023-09-18 09:14:29</v>
+        <v>2023-09-19 21:49:46</v>
       </c>
       <c r="B22">
         <v>21.19</v>
       </c>
       <c r="C22">
-        <v>29.02</v>
+        <v>26.84</v>
       </c>
       <c r="D22">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22">
-        <v>21.3</v>
+        <v>20.3</v>
       </c>
       <c r="F22">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2023-09-18 12:49:45</v>
+        <v>2023-09-20 01:26:11</v>
       </c>
       <c r="B23">
-        <v>21.19</v>
+        <v>21.51</v>
       </c>
       <c r="C23">
-        <v>28.22</v>
+        <v>29.02</v>
       </c>
       <c r="D23">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E23">
-        <v>21.3</v>
+        <v>20.3</v>
       </c>
       <c r="F23">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2023-09-18 16:34:40</v>
+        <v>2023-09-20 01:31:13</v>
       </c>
       <c r="B24">
-        <v>20.88</v>
+        <v>21.51</v>
       </c>
       <c r="C24">
-        <v>28.22</v>
+        <v>29.02</v>
       </c>
       <c r="D24">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E24">
-        <v>20.39</v>
+        <v>20.3</v>
       </c>
       <c r="F24">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2023-09-18 20:14:15</v>
+        <v>2023-09-20 05:13:12</v>
       </c>
       <c r="B25">
-        <v>20.88</v>
+        <v>21.51</v>
       </c>
       <c r="C25">
-        <v>28.22</v>
+        <v>29.04</v>
       </c>
       <c r="D25">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E25">
-        <v>20.39</v>
+        <v>20.3</v>
       </c>
       <c r="F25">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2023-09-18 23:53:20</v>
+        <v>2023-09-20 08:52:27</v>
       </c>
       <c r="B26">
-        <v>20.46</v>
+        <v>21.51</v>
       </c>
       <c r="C26">
-        <v>28.22</v>
+        <v>29.12</v>
       </c>
       <c r="D26">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E26">
-        <v>20.39</v>
+        <v>20.3</v>
       </c>
       <c r="F26">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2023-09-19 00:01:16</v>
+        <v>2023-09-20 12:29:28</v>
       </c>
       <c r="B27">
-        <v>20.46</v>
+        <v>21</v>
       </c>
       <c r="C27">
-        <v>28.22</v>
+        <v>28.97</v>
       </c>
       <c r="D27">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E27">
-        <v>20.39</v>
+        <v>20.3</v>
       </c>
       <c r="F27">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2023-09-19 03:37:18</v>
+        <v>2023-09-20 16:00:58</v>
       </c>
       <c r="B28">
-        <v>20.55</v>
+        <v>20.9</v>
       </c>
       <c r="C28">
-        <v>29.02</v>
+        <v>29.04</v>
       </c>
       <c r="D28">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E28">
-        <v>20.39</v>
+        <v>20.2</v>
       </c>
       <c r="F28">
         <v>19</v>
@@ -842,379 +842,379 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2023-09-19 07:15:59</v>
+        <v>2023-09-20 19:44:13</v>
       </c>
       <c r="B29">
-        <v>20.88</v>
+        <v>21.51</v>
       </c>
       <c r="C29">
-        <v>26.84</v>
+        <v>28.9</v>
       </c>
       <c r="D29">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E29">
-        <v>20.39</v>
+        <v>20.3</v>
       </c>
       <c r="F29">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2023-09-19 10:52:22</v>
+        <v>2023-09-20 23:24:35</v>
       </c>
       <c r="B30">
-        <v>20.88</v>
+        <v>21.31</v>
       </c>
       <c r="C30">
-        <v>26.84</v>
+        <v>28.9</v>
       </c>
       <c r="D30">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="E30">
-        <v>20.39</v>
+        <v>20.3</v>
       </c>
       <c r="F30">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2023-09-19 14:27:46</v>
+        <v>2023-09-21 03:05:39</v>
       </c>
       <c r="B31">
-        <v>20.88</v>
+        <v>21.6</v>
       </c>
       <c r="C31">
-        <v>26.84</v>
+        <v>31.89</v>
       </c>
       <c r="D31">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E31">
-        <v>20.39</v>
+        <v>20.3</v>
       </c>
       <c r="F31">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2023-09-19 18:08:51</v>
+        <v>2023-09-21 06:46:34</v>
       </c>
       <c r="B32">
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="C32">
-        <v>26.84</v>
+        <v>31.12</v>
       </c>
       <c r="D32">
         <v>145</v>
       </c>
       <c r="E32">
-        <v>20.3</v>
+        <v>20.7</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2023-09-19 21:49:46</v>
+        <v>2023-09-21 06:54:48</v>
       </c>
       <c r="B33">
-        <v>21.19</v>
+        <v>21.4</v>
       </c>
       <c r="C33">
-        <v>26.84</v>
+        <v>31.12</v>
       </c>
       <c r="D33">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E33">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="F33">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2023-09-20 01:26:11</v>
+        <v>2023-09-21 10:35:22</v>
       </c>
       <c r="B34">
-        <v>21.51</v>
+        <v>21.4</v>
       </c>
       <c r="C34">
-        <v>29.02</v>
+        <v>26.96</v>
       </c>
       <c r="D34">
         <v>138</v>
       </c>
       <c r="E34">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="F34">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2023-09-20 01:31:13</v>
+        <v>2023-09-21 14:14:05</v>
       </c>
       <c r="B35">
-        <v>21.51</v>
+        <v>21.6</v>
       </c>
       <c r="C35">
-        <v>29.02</v>
+        <v>26.96</v>
       </c>
       <c r="D35">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E35">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="F35">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2023-09-20 05:13:12</v>
+        <v>2023-09-21 17:49:02</v>
       </c>
       <c r="B36">
-        <v>21.51</v>
+        <v>22.49</v>
       </c>
       <c r="C36">
-        <v>29.04</v>
+        <v>31.12</v>
       </c>
       <c r="D36">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E36">
-        <v>20.3</v>
+        <v>20.7</v>
       </c>
       <c r="F36">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2023-09-20 08:52:27</v>
+        <v>2023-09-21 21:26:14</v>
       </c>
       <c r="B37">
-        <v>21.51</v>
+        <v>22.38</v>
       </c>
       <c r="C37">
-        <v>29.12</v>
+        <v>29.08</v>
       </c>
       <c r="D37">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E37">
-        <v>20.3</v>
+        <v>20.8</v>
       </c>
       <c r="F37">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2023-09-20 12:29:28</v>
+        <v>2023-09-23 00:48:00</v>
       </c>
       <c r="B38">
-        <v>21</v>
+        <v>22.24</v>
       </c>
       <c r="C38">
-        <v>28.97</v>
+        <v>28.06</v>
       </c>
       <c r="D38">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E38">
         <v>20.3</v>
       </c>
       <c r="F38">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2023-09-20 16:00:58</v>
+        <v>2023-09-23 04:44:01</v>
       </c>
       <c r="B39">
-        <v>20.9</v>
+        <v>22.24</v>
       </c>
       <c r="C39">
-        <v>29.04</v>
+        <v>28.17</v>
       </c>
       <c r="D39">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="E39">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="F39">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2023-09-20 19:44:13</v>
+        <v>2023-09-23 08:20:31</v>
       </c>
       <c r="B40">
-        <v>21.51</v>
+        <v>22.24</v>
       </c>
       <c r="C40">
-        <v>28.9</v>
+        <v>30.29</v>
       </c>
       <c r="D40">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="E40">
-        <v>20.3</v>
+        <v>20.39</v>
       </c>
       <c r="F40">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2023-09-20 23:24:35</v>
+        <v>2023-09-23 12:17:31</v>
       </c>
       <c r="B41">
-        <v>21.31</v>
+        <v>21.89</v>
       </c>
       <c r="C41">
-        <v>28.9</v>
+        <v>29.85</v>
       </c>
       <c r="D41">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E41">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="F41">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2023-09-21 03:05:39</v>
+        <v>2023-09-23 16:02:04</v>
       </c>
       <c r="B42">
-        <v>21.6</v>
+        <v>21.99</v>
       </c>
       <c r="C42">
-        <v>31.89</v>
+        <v>27.88</v>
       </c>
       <c r="D42">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E42">
         <v>20.3</v>
       </c>
       <c r="F42">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2023-09-21 06:46:34</v>
+        <v>2023-09-23 19:47:27</v>
       </c>
       <c r="B43">
-        <v>21.4</v>
+        <v>21.39</v>
       </c>
       <c r="C43">
-        <v>31.12</v>
+        <v>28.17</v>
       </c>
       <c r="D43">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E43">
-        <v>20.7</v>
+        <v>20.39</v>
       </c>
       <c r="F43">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2023-09-21 06:54:48</v>
+        <v>2023-09-23 23:23:46</v>
       </c>
       <c r="B44">
-        <v>21.4</v>
+        <v>21</v>
       </c>
       <c r="C44">
-        <v>31.12</v>
+        <v>28.17</v>
       </c>
       <c r="D44">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E44">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="F44">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2023-09-21 10:35:22</v>
+        <v>2023-09-24 03:06:34</v>
       </c>
       <c r="B45">
-        <v>21.4</v>
+        <v>21.47</v>
       </c>
       <c r="C45">
-        <v>26.96</v>
+        <v>29.7</v>
       </c>
       <c r="D45">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E45">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="F45">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2023-09-21 14:14:05</v>
+        <v>2023-09-24 06:49:37</v>
       </c>
       <c r="B46">
-        <v>21.6</v>
+        <v>21.47</v>
       </c>
       <c r="C46">
-        <v>26.96</v>
+        <v>29.7</v>
       </c>
       <c r="D46">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E46">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="F46">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2023-09-21 17:49:02</v>
+        <v>2023-09-24 06:58:48</v>
       </c>
       <c r="B47">
-        <v>22.49</v>
+        <v>21.47</v>
       </c>
       <c r="C47">
-        <v>31.12</v>
+        <v>29.7</v>
       </c>
       <c r="D47">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E47">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
       <c r="F47">
         <v>22</v>
@@ -1222,59 +1222,59 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2023-09-21 21:26:14</v>
+        <v>2023-09-24 10:36:47</v>
       </c>
       <c r="B48">
-        <v>22.38</v>
+        <v>21.45</v>
       </c>
       <c r="C48">
-        <v>29.08</v>
+        <v>29.63</v>
       </c>
       <c r="D48">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E48">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="F48">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2023-09-23 00:48:00</v>
+        <v>2023-09-24 14:19:24</v>
       </c>
       <c r="B49">
-        <v>22.24</v>
+        <v>21.34</v>
       </c>
       <c r="C49">
-        <v>28.06</v>
+        <v>29.19</v>
       </c>
       <c r="D49">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E49">
         <v>20.3</v>
       </c>
       <c r="F49">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2023-09-23 04:44:01</v>
+        <v>2023-09-24 17:59:15</v>
       </c>
       <c r="B50">
-        <v>22.24</v>
+        <v>21</v>
       </c>
       <c r="C50">
-        <v>28.17</v>
+        <v>29.63</v>
       </c>
       <c r="D50">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E50">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="F50">
         <v>16</v>
@@ -1282,216 +1282,216 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2023-09-23 08:20:31</v>
+        <v>2023-09-24 21:38:47</v>
       </c>
       <c r="B51">
-        <v>22.24</v>
+        <v>21.45</v>
       </c>
       <c r="C51">
-        <v>30.29</v>
+        <v>29.63</v>
       </c>
       <c r="D51">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E51">
         <v>20.39</v>
       </c>
       <c r="F51">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2023-09-23 12:17:31</v>
+        <v>2023-09-25 01:13:20</v>
       </c>
       <c r="B52">
-        <v>21.89</v>
+        <v>21.3</v>
       </c>
       <c r="C52">
-        <v>29.85</v>
+        <v>29.63</v>
       </c>
       <c r="D52">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E52">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="F52">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2023-09-23 16:02:04</v>
+        <v>2023-09-25 04:50:55</v>
       </c>
       <c r="B53">
-        <v>21.99</v>
+        <v>21.9</v>
       </c>
       <c r="C53">
-        <v>27.88</v>
+        <v>29.48</v>
       </c>
       <c r="D53">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E53">
         <v>20.3</v>
       </c>
       <c r="F53">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2023-09-23 19:47:27</v>
+        <v>2023-09-25 04:56:36</v>
       </c>
       <c r="B54">
-        <v>21.39</v>
+        <v>21.9</v>
       </c>
       <c r="C54">
-        <v>28.17</v>
+        <v>29.48</v>
       </c>
       <c r="D54">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E54">
-        <v>20.39</v>
+        <v>20.3</v>
       </c>
       <c r="F54">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2023-09-23 23:23:46</v>
+        <v>2023-09-25 08:38:18</v>
       </c>
       <c r="B55">
-        <v>21</v>
+        <v>21.7</v>
       </c>
       <c r="C55">
-        <v>28.17</v>
+        <v>29.48</v>
       </c>
       <c r="D55">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E55">
         <v>20.3</v>
       </c>
       <c r="F55">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2023-09-24 03:06:34</v>
+        <v>2023-09-25 12:20:49</v>
       </c>
       <c r="B56">
-        <v>21.47</v>
+        <v>21.4</v>
       </c>
       <c r="C56">
-        <v>29.7</v>
+        <v>28.24</v>
       </c>
       <c r="D56">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E56">
-        <v>20.3</v>
+        <v>20.39</v>
       </c>
       <c r="F56">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2023-09-24 06:49:37</v>
+        <v>2023-09-25 12:27:12</v>
       </c>
       <c r="B57">
-        <v>21.47</v>
+        <v>21.4</v>
       </c>
       <c r="C57">
-        <v>29.7</v>
+        <v>28.24</v>
       </c>
       <c r="D57">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E57">
-        <v>20.3</v>
+        <v>20.39</v>
       </c>
       <c r="F57">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2023-09-24 06:58:48</v>
+        <v>2023-09-25 16:09:59</v>
       </c>
       <c r="B58">
-        <v>21.47</v>
+        <v>20.78</v>
       </c>
       <c r="C58">
         <v>29.7</v>
       </c>
       <c r="D58">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E58">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="F58">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2023-09-24 10:36:47</v>
+        <v>2023-09-25 19:50:57</v>
       </c>
       <c r="B59">
-        <v>21.45</v>
+        <v>20.57</v>
       </c>
       <c r="C59">
-        <v>29.63</v>
+        <v>29.7</v>
       </c>
       <c r="D59">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="E59">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="F59">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2023-09-24 14:19:24</v>
+        <v>2023-09-25 19:56:14</v>
       </c>
       <c r="B60">
-        <v>21.34</v>
+        <v>20.57</v>
       </c>
       <c r="C60">
-        <v>29.19</v>
+        <v>29.7</v>
       </c>
       <c r="D60">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E60">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="F60">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2023-09-24 17:59:15</v>
+        <v>2023-09-25 23:37:57</v>
       </c>
       <c r="B61">
-        <v>21</v>
+        <v>20.37</v>
       </c>
       <c r="C61">
-        <v>29.63</v>
+        <v>27.22</v>
       </c>
       <c r="D61">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E61">
         <v>20.2</v>
@@ -1502,19 +1502,19 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2023-09-24 21:38:47</v>
+        <v>2023-09-26 03:13:57</v>
       </c>
       <c r="B62">
-        <v>21.45</v>
+        <v>20.99</v>
       </c>
       <c r="C62">
-        <v>29.63</v>
+        <v>27.14</v>
       </c>
       <c r="D62">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="E62">
-        <v>20.39</v>
+        <v>20.1</v>
       </c>
       <c r="F62">
         <v>19</v>
@@ -1522,79 +1522,79 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2023-09-25 01:13:20</v>
+        <v>2023-09-26 06:51:04</v>
       </c>
       <c r="B63">
-        <v>21.3</v>
+        <v>20.68</v>
       </c>
       <c r="C63">
-        <v>29.63</v>
+        <v>29.76</v>
       </c>
       <c r="D63">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E63">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="F63">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2023-09-25 04:50:55</v>
+        <v>2023-09-26 06:57:18</v>
       </c>
       <c r="B64">
-        <v>21.9</v>
+        <v>21</v>
       </c>
       <c r="C64">
-        <v>29.48</v>
+        <v>29.76</v>
       </c>
       <c r="D64">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E64">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="F64">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2023-09-25 04:56:36</v>
+        <v>2023-09-26 10:41:29</v>
       </c>
       <c r="B65">
-        <v>21.9</v>
+        <v>20.58</v>
       </c>
       <c r="C65">
-        <v>29.48</v>
+        <v>29.76</v>
       </c>
       <c r="D65">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="E65">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="F65">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2023-09-25 08:38:18</v>
+        <v>2023-09-26 14:20:10</v>
       </c>
       <c r="B66">
-        <v>21.7</v>
+        <v>20.37</v>
       </c>
       <c r="C66">
-        <v>29.48</v>
+        <v>29.69</v>
       </c>
       <c r="D66">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E66">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="F66">
         <v>17</v>
@@ -1602,256 +1602,256 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2023-09-25 12:20:49</v>
+        <v>2023-09-26 17:59:39</v>
       </c>
       <c r="B67">
-        <v>21.4</v>
+        <v>20.17</v>
       </c>
       <c r="C67">
-        <v>28.24</v>
+        <v>29.69</v>
       </c>
       <c r="D67">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="E67">
-        <v>20.39</v>
+        <v>20.1</v>
       </c>
       <c r="F67">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2023-09-25 12:27:12</v>
+        <v>2023-09-26 21:40:50</v>
       </c>
       <c r="B68">
-        <v>21.4</v>
+        <v>20.37</v>
       </c>
       <c r="C68">
-        <v>28.24</v>
+        <v>29.76</v>
       </c>
       <c r="D68">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="E68">
-        <v>20.39</v>
+        <v>20.1</v>
       </c>
       <c r="F68">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2023-09-25 16:09:59</v>
+        <v>2023-09-27 01:18:26</v>
       </c>
       <c r="B69">
-        <v>20.78</v>
+        <v>21</v>
       </c>
       <c r="C69">
-        <v>29.7</v>
+        <v>29.69</v>
       </c>
       <c r="D69">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E69">
         <v>20.2</v>
       </c>
       <c r="F69">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2023-09-25 19:50:57</v>
+        <v>2023-09-27 04:54:58</v>
       </c>
       <c r="B70">
-        <v>20.57</v>
+        <v>20.37</v>
       </c>
       <c r="C70">
-        <v>29.7</v>
+        <v>29.47</v>
       </c>
       <c r="D70">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E70">
         <v>20.2</v>
       </c>
       <c r="F70">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2023-09-25 19:56:14</v>
+        <v>2023-09-27 08:32:12</v>
       </c>
       <c r="B71">
-        <v>20.57</v>
+        <v>20.37</v>
       </c>
       <c r="C71">
-        <v>29.7</v>
+        <v>28.59</v>
       </c>
       <c r="D71">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E71">
         <v>20.2</v>
       </c>
       <c r="F71">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2023-09-25 23:37:57</v>
+        <v>2023-09-27 08:38:35</v>
       </c>
       <c r="B72">
         <v>20.37</v>
       </c>
       <c r="C72">
-        <v>27.22</v>
+        <v>28.59</v>
       </c>
       <c r="D72">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E72">
         <v>20.2</v>
       </c>
       <c r="F72">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2023-09-26 03:13:57</v>
+        <v>2023-09-27 12:19:41</v>
       </c>
       <c r="B73">
-        <v>20.99</v>
+        <v>21</v>
       </c>
       <c r="C73">
-        <v>27.14</v>
+        <v>28.59</v>
       </c>
       <c r="D73">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E73">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="F73">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2023-09-26 06:51:04</v>
+        <v>2023-09-27 15:59:58</v>
       </c>
       <c r="B74">
-        <v>20.68</v>
+        <v>20.29</v>
       </c>
       <c r="C74">
-        <v>29.76</v>
+        <v>26.54</v>
       </c>
       <c r="D74">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="E74">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="F74">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2023-09-26 06:57:18</v>
+        <v>2023-09-27 19:39:23</v>
       </c>
       <c r="B75">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C75">
-        <v>29.76</v>
+        <v>28.15</v>
       </c>
       <c r="D75">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="E75">
         <v>20.1</v>
       </c>
       <c r="F75">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2023-09-26 10:41:29</v>
+        <v>2023-09-27 23:19:14</v>
       </c>
       <c r="B76">
-        <v>20.58</v>
+        <v>20.8</v>
       </c>
       <c r="C76">
-        <v>29.76</v>
+        <v>28.73</v>
       </c>
       <c r="D76">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E76">
         <v>20.1</v>
       </c>
       <c r="F76">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2023-09-26 14:20:10</v>
+        <v>2023-09-28 02:59:43</v>
       </c>
       <c r="B77">
-        <v>20.37</v>
+        <v>20.7</v>
       </c>
       <c r="C77">
-        <v>29.69</v>
+        <v>27.13</v>
       </c>
       <c r="D77">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E77">
         <v>20.1</v>
       </c>
       <c r="F77">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2023-09-26 17:59:39</v>
+        <v>2023-09-28 06:34:41</v>
       </c>
       <c r="B78">
-        <v>20.17</v>
+        <v>20.7</v>
       </c>
       <c r="C78">
-        <v>29.69</v>
+        <v>28.73</v>
       </c>
       <c r="D78">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E78">
         <v>20.1</v>
       </c>
       <c r="F78">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2023-09-26 21:40:50</v>
+        <v>2023-09-28 10:11:47</v>
       </c>
       <c r="B79">
-        <v>20.37</v>
+        <v>20.8</v>
       </c>
       <c r="C79">
-        <v>29.76</v>
+        <v>27.12</v>
       </c>
       <c r="D79">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E79">
         <v>20.1</v>
@@ -1862,319 +1862,319 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2023-09-27 01:18:26</v>
+        <v>2023-09-28 13:52:44</v>
       </c>
       <c r="B80">
-        <v>21</v>
+        <v>20.39</v>
       </c>
       <c r="C80">
-        <v>29.69</v>
+        <v>28.58</v>
       </c>
       <c r="D80">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E80">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="F80">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2023-09-27 04:54:58</v>
+        <v>2023-09-28 17:26:39</v>
       </c>
       <c r="B81">
-        <v>20.37</v>
+        <v>19.79</v>
       </c>
       <c r="C81">
-        <v>29.47</v>
+        <v>28.58</v>
       </c>
       <c r="D81">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="E81">
-        <v>20.2</v>
+        <v>19.39</v>
       </c>
       <c r="F81">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2023-09-27 08:32:12</v>
+        <v>2023-09-28 21:03:40</v>
       </c>
       <c r="B82">
-        <v>20.37</v>
+        <v>19.59</v>
       </c>
       <c r="C82">
-        <v>28.59</v>
+        <v>29.1</v>
       </c>
       <c r="D82">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="E82">
-        <v>20.2</v>
+        <v>19.2</v>
       </c>
       <c r="F82">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2023-09-27 08:38:35</v>
+        <v>2023-09-29 00:45:03</v>
       </c>
       <c r="B83">
-        <v>20.37</v>
+        <v>19.27</v>
       </c>
       <c r="C83">
-        <v>28.59</v>
+        <v>29.46</v>
       </c>
       <c r="D83">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="E83">
-        <v>20.2</v>
+        <v>19.2</v>
       </c>
       <c r="F83">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2023-09-27 12:19:41</v>
+        <v>2023-09-29 04:25:33</v>
       </c>
       <c r="B84">
-        <v>21</v>
+        <v>19.37</v>
       </c>
       <c r="C84">
-        <v>28.59</v>
+        <v>28.55</v>
       </c>
       <c r="D84">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="E84">
-        <v>20.2</v>
+        <v>19.2</v>
       </c>
       <c r="F84">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2023-09-27 15:59:58</v>
+        <v>2023-09-29 08:06:00</v>
       </c>
       <c r="B85">
-        <v>20.29</v>
+        <v>19.27</v>
       </c>
       <c r="C85">
-        <v>26.54</v>
+        <v>28.91</v>
       </c>
       <c r="D85">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E85">
-        <v>20.2</v>
+        <v>19.2</v>
       </c>
       <c r="F85">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2023-09-27 19:39:23</v>
+        <v>2023-09-29 11:44:01</v>
       </c>
       <c r="B86">
-        <v>20</v>
+        <v>19.27</v>
       </c>
       <c r="C86">
-        <v>28.15</v>
+        <v>30.01</v>
       </c>
       <c r="D86">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E86">
-        <v>20.1</v>
+        <v>18.1</v>
       </c>
       <c r="F86">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2023-09-27 23:19:14</v>
+        <v>2023-09-29 15:22:15</v>
       </c>
       <c r="B87">
-        <v>20.8</v>
+        <v>19.26</v>
       </c>
       <c r="C87">
-        <v>28.73</v>
+        <v>31.03</v>
       </c>
       <c r="D87">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E87">
-        <v>20.1</v>
+        <v>18.1</v>
       </c>
       <c r="F87">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2023-09-28 02:59:43</v>
+        <v>2023-09-29 18:57:21</v>
       </c>
       <c r="B88">
-        <v>20.7</v>
+        <v>19.46</v>
       </c>
       <c r="C88">
-        <v>27.13</v>
+        <v>30.37</v>
       </c>
       <c r="D88">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E88">
-        <v>20.1</v>
+        <v>18.3</v>
       </c>
       <c r="F88">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2023-09-28 06:34:41</v>
+        <v>2023-09-29 22:33:29</v>
       </c>
       <c r="B89">
-        <v>20.7</v>
+        <v>19.32</v>
       </c>
       <c r="C89">
-        <v>28.73</v>
+        <v>28.84</v>
       </c>
       <c r="D89">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="E89">
-        <v>20.1</v>
+        <v>18.1</v>
       </c>
       <c r="F89">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2023-09-28 10:11:47</v>
+        <v>2023-09-30 02:14:49</v>
       </c>
       <c r="B90">
-        <v>20.8</v>
+        <v>19.1</v>
       </c>
       <c r="C90">
-        <v>27.12</v>
+        <v>27.82</v>
       </c>
       <c r="D90">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="E90">
-        <v>20.1</v>
+        <v>18.1</v>
       </c>
       <c r="F90">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2023-09-28 13:52:44</v>
+        <v>2023-09-30 05:52:01</v>
       </c>
       <c r="B91">
-        <v>20.39</v>
+        <v>19</v>
       </c>
       <c r="C91">
-        <v>28.58</v>
+        <v>28.23</v>
       </c>
       <c r="D91">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="E91">
-        <v>20.1</v>
+        <v>18.1</v>
       </c>
       <c r="F91">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2023-09-28 17:26:39</v>
+        <v>2023-09-30 09:35:05</v>
       </c>
       <c r="B92">
-        <v>19.79</v>
+        <v>19</v>
       </c>
       <c r="C92">
-        <v>28.58</v>
+        <v>29.98</v>
       </c>
       <c r="D92">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E92">
-        <v>19.39</v>
+        <v>18.3</v>
       </c>
       <c r="F92">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>2023-09-28 21:03:40</v>
+        <v>2023-09-30 13:15:31</v>
       </c>
       <c r="B93">
-        <v>19.59</v>
+        <v>18.89</v>
       </c>
       <c r="C93">
-        <v>29.1</v>
+        <v>26.63</v>
       </c>
       <c r="D93">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E93">
-        <v>19.2</v>
+        <v>18.3</v>
       </c>
       <c r="F93">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>2023-09-29 00:45:03</v>
+        <v>2023-09-30 16:55:16</v>
       </c>
       <c r="B94">
-        <v>19.27</v>
+        <v>18.28</v>
       </c>
       <c r="C94">
-        <v>29.46</v>
+        <v>31.23</v>
       </c>
       <c r="D94">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="E94">
-        <v>19.2</v>
+        <v>18.1</v>
       </c>
       <c r="F94">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>2023-09-29 04:25:33</v>
+        <v>2023-09-30 20:34:24</v>
       </c>
       <c r="B95">
-        <v>19.37</v>
+        <v>18.2</v>
       </c>
       <c r="C95">
-        <v>28.55</v>
+        <v>28.53</v>
       </c>
       <c r="D95">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="E95">
-        <v>19.2</v>
+        <v>18.1</v>
       </c>
       <c r="F95">
         <v>7</v>
@@ -2182,19 +2182,19 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>2023-09-29 08:06:00</v>
+        <v>2023-10-01 00:14:31</v>
       </c>
       <c r="B96">
-        <v>19.27</v>
+        <v>17.98</v>
       </c>
       <c r="C96">
-        <v>28.91</v>
+        <v>29.77</v>
       </c>
       <c r="D96">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="E96">
-        <v>19.2</v>
+        <v>18.1</v>
       </c>
       <c r="F96">
         <v>7</v>
@@ -2202,259 +2202,259 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>2023-09-29 11:44:01</v>
+        <v>2023-10-01 03:54:24</v>
       </c>
       <c r="B97">
-        <v>19.27</v>
+        <v>18.17</v>
       </c>
       <c r="C97">
-        <v>30.01</v>
+        <v>30.35</v>
       </c>
       <c r="D97">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="E97">
-        <v>18.1</v>
+        <v>17.3</v>
       </c>
       <c r="F97">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>2023-09-29 15:22:15</v>
+        <v>2023-10-01 07:31:32</v>
       </c>
       <c r="B98">
-        <v>19.26</v>
+        <v>18.16</v>
       </c>
       <c r="C98">
-        <v>31.03</v>
+        <v>30.64</v>
       </c>
       <c r="D98">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="E98">
-        <v>18.1</v>
+        <v>17.3</v>
       </c>
       <c r="F98">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>2023-09-29 18:57:21</v>
+        <v>2023-10-01 11:11:48</v>
       </c>
       <c r="B99">
-        <v>19.46</v>
+        <v>17.88</v>
       </c>
       <c r="C99">
-        <v>30.37</v>
+        <v>28.23</v>
       </c>
       <c r="D99">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="E99">
-        <v>18.3</v>
+        <v>17.5</v>
       </c>
       <c r="F99">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>2023-09-29 22:33:29</v>
+        <v>2023-10-01 14:54:31</v>
       </c>
       <c r="B100">
-        <v>19.32</v>
+        <v>18.38</v>
       </c>
       <c r="C100">
-        <v>28.84</v>
+        <v>30.49</v>
       </c>
       <c r="D100">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E100">
-        <v>18.1</v>
+        <v>17.5</v>
       </c>
       <c r="F100">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>2023-09-30 02:14:49</v>
+        <v>2023-10-01 18:33:44</v>
       </c>
       <c r="B101">
-        <v>19.1</v>
+        <v>18.89</v>
       </c>
       <c r="C101">
-        <v>27.82</v>
+        <v>29.4</v>
       </c>
       <c r="D101">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E101">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F101">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>2023-09-30 05:52:01</v>
+        <v>2023-10-01 22:12:49</v>
       </c>
       <c r="B102">
-        <v>19</v>
+        <v>18.79</v>
       </c>
       <c r="C102">
-        <v>28.23</v>
+        <v>28.52</v>
       </c>
       <c r="D102">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="E102">
-        <v>18.1</v>
+        <v>17.39</v>
       </c>
       <c r="F102">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>2023-09-30 09:35:05</v>
+        <v>2023-10-02 01:55:08</v>
       </c>
       <c r="B103">
-        <v>19</v>
+        <v>18.79</v>
       </c>
       <c r="C103">
-        <v>29.98</v>
+        <v>26.99</v>
       </c>
       <c r="D103">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E103">
-        <v>18.3</v>
+        <v>17.5</v>
       </c>
       <c r="F103">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2023-09-30 13:15:31</v>
+        <v>2023-10-02 05:33:23</v>
       </c>
       <c r="B104">
-        <v>18.89</v>
+        <v>18</v>
       </c>
       <c r="C104">
-        <v>26.63</v>
+        <v>28.55</v>
       </c>
       <c r="D104">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E104">
-        <v>18.3</v>
+        <v>17.5</v>
       </c>
       <c r="F104">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>2023-09-30 16:55:16</v>
+        <v>2023-10-02 09:08:54</v>
       </c>
       <c r="B105">
-        <v>18.28</v>
+        <v>18.79</v>
       </c>
       <c r="C105">
-        <v>31.23</v>
+        <v>28.62</v>
       </c>
       <c r="D105">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E105">
-        <v>18.1</v>
+        <v>17.5</v>
       </c>
       <c r="F105">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>2023-09-30 20:34:24</v>
+        <v>2023-10-02 12:45:03</v>
       </c>
       <c r="B106">
-        <v>18.2</v>
+        <v>18.77</v>
       </c>
       <c r="C106">
-        <v>28.53</v>
+        <v>27.26</v>
       </c>
       <c r="D106">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E106">
-        <v>18.1</v>
+        <v>17.6</v>
       </c>
       <c r="F106">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>2023-10-01 00:14:31</v>
+        <v>2023-10-02 16:24:34</v>
       </c>
       <c r="B107">
-        <v>17.98</v>
+        <v>19.87</v>
       </c>
       <c r="C107">
-        <v>29.77</v>
+        <v>27.47</v>
       </c>
       <c r="D107">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E107">
-        <v>18.1</v>
+        <v>17.89</v>
       </c>
       <c r="F107">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>2023-10-01 03:54:24</v>
+        <v>2023-10-02 20:03:32</v>
       </c>
       <c r="B108">
-        <v>18.17</v>
+        <v>19.37</v>
       </c>
       <c r="C108">
-        <v>30.35</v>
+        <v>26.11</v>
       </c>
       <c r="D108">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E108">
-        <v>17.3</v>
+        <v>17.89</v>
       </c>
       <c r="F108">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>2023-10-01 07:31:32</v>
+        <v>2023-10-02 23:45:41</v>
       </c>
       <c r="B109">
-        <v>18.16</v>
+        <v>19.64</v>
       </c>
       <c r="C109">
-        <v>30.64</v>
+        <v>25.97</v>
       </c>
       <c r="D109">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E109">
-        <v>17.3</v>
+        <v>18</v>
       </c>
       <c r="F109">
         <v>8</v>
@@ -2462,279 +2462,279 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>2023-10-01 11:11:48</v>
+        <v>2023-10-03 03:25:30</v>
       </c>
       <c r="B110">
-        <v>17.88</v>
+        <v>19.64</v>
       </c>
       <c r="C110">
-        <v>28.23</v>
+        <v>28.84</v>
       </c>
       <c r="D110">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E110">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="F110">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>2023-10-01 14:54:31</v>
+        <v>2023-10-03 07:03:20</v>
       </c>
       <c r="B111">
-        <v>18.38</v>
+        <v>19.54</v>
       </c>
       <c r="C111">
-        <v>30.49</v>
+        <v>29.81</v>
       </c>
       <c r="D111">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E111">
-        <v>17.5</v>
+        <v>18.1</v>
       </c>
       <c r="F111">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>2023-10-01 18:33:44</v>
+        <v>2023-10-03 10:41:01</v>
       </c>
       <c r="B112">
-        <v>18.89</v>
+        <v>19.43</v>
       </c>
       <c r="C112">
-        <v>29.4</v>
+        <v>30.1</v>
       </c>
       <c r="D112">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="E112">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="F112">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>2023-10-01 22:12:49</v>
+        <v>2023-10-03 14:19:37</v>
       </c>
       <c r="B113">
-        <v>18.79</v>
+        <v>19.66</v>
       </c>
       <c r="C113">
-        <v>28.52</v>
+        <v>29.81</v>
       </c>
       <c r="D113">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E113">
-        <v>17.39</v>
+        <v>18.5</v>
       </c>
       <c r="F113">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>2023-10-02 01:55:08</v>
+        <v>2023-10-03 17:57:36</v>
       </c>
       <c r="B114">
         <v>18.79</v>
       </c>
       <c r="C114">
-        <v>26.99</v>
+        <v>30.02</v>
       </c>
       <c r="D114">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E114">
-        <v>17.5</v>
+        <v>18.6</v>
       </c>
       <c r="F114">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>2023-10-02 05:33:23</v>
+        <v>2023-10-03 21:33:12</v>
       </c>
       <c r="B115">
-        <v>18</v>
+        <v>18.69</v>
       </c>
       <c r="C115">
-        <v>28.55</v>
+        <v>27.29</v>
       </c>
       <c r="D115">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E115">
-        <v>17.5</v>
+        <v>18.6</v>
       </c>
       <c r="F115">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>2023-10-02 09:08:54</v>
+        <v>2023-10-04 01:14:04</v>
       </c>
       <c r="B116">
-        <v>18.79</v>
+        <v>18.78</v>
       </c>
       <c r="C116">
-        <v>28.62</v>
+        <v>29.88</v>
       </c>
       <c r="D116">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E116">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="F116">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>2023-10-02 12:45:03</v>
+        <v>2023-10-04 04:55:44</v>
       </c>
       <c r="B117">
-        <v>18.77</v>
+        <v>18.68</v>
       </c>
       <c r="C117">
-        <v>27.26</v>
+        <v>29.87</v>
       </c>
       <c r="D117">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E117">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="F117">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>2023-10-02 16:24:34</v>
+        <v>2023-10-04 08:35:19</v>
       </c>
       <c r="B118">
-        <v>19.87</v>
+        <v>18.57</v>
       </c>
       <c r="C118">
-        <v>27.47</v>
+        <v>30.01</v>
       </c>
       <c r="D118">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E118">
-        <v>17.89</v>
+        <v>17.7</v>
       </c>
       <c r="F118">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>2023-10-02 20:03:32</v>
+        <v>2023-10-04 12:14:59</v>
       </c>
       <c r="B119">
-        <v>19.37</v>
+        <v>18.67</v>
       </c>
       <c r="C119">
-        <v>26.11</v>
+        <v>29.37</v>
       </c>
       <c r="D119">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E119">
-        <v>17.89</v>
+        <v>17.7</v>
       </c>
       <c r="F119">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>2023-10-02 23:45:41</v>
+        <v>2023-10-04 15:58:16</v>
       </c>
       <c r="B120">
-        <v>19.64</v>
+        <v>18.57</v>
       </c>
       <c r="C120">
-        <v>25.97</v>
+        <v>29.51</v>
       </c>
       <c r="D120">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E120">
-        <v>18</v>
+        <v>17.7</v>
       </c>
       <c r="F120">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>2023-10-03 03:25:30</v>
+        <v>2023-10-04 19:35:48</v>
       </c>
       <c r="B121">
-        <v>19.64</v>
+        <v>18.48</v>
       </c>
       <c r="C121">
-        <v>28.84</v>
+        <v>29.51</v>
       </c>
       <c r="D121">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="E121">
-        <v>18</v>
+        <v>17.3</v>
       </c>
       <c r="F121">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>2023-10-03 07:03:20</v>
+        <v>2023-10-04 23:13:14</v>
       </c>
       <c r="B122">
-        <v>19.54</v>
+        <v>20.74</v>
       </c>
       <c r="C122">
-        <v>29.81</v>
+        <v>29.44</v>
       </c>
       <c r="D122">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E122">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="F122">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>2023-10-03 10:41:01</v>
+        <v>2023-10-05 02:50:09</v>
       </c>
       <c r="B123">
-        <v>19.43</v>
+        <v>20.64</v>
       </c>
       <c r="C123">
-        <v>30.1</v>
+        <v>28.93</v>
       </c>
       <c r="D123">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="E123">
-        <v>18.5</v>
+        <v>18.1</v>
       </c>
       <c r="F123">
         <v>17</v>
@@ -2742,639 +2742,639 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>2023-10-03 14:19:37</v>
+        <v>2023-10-05 06:28:10</v>
       </c>
       <c r="B124">
-        <v>19.66</v>
+        <v>20.63</v>
       </c>
       <c r="C124">
-        <v>29.81</v>
+        <v>28.5</v>
       </c>
       <c r="D124">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="E124">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="F124">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>2023-10-03 17:57:36</v>
+        <v>2023-10-05 10:07:01</v>
       </c>
       <c r="B125">
-        <v>18.79</v>
+        <v>20.63</v>
       </c>
       <c r="C125">
-        <v>30.02</v>
+        <v>26.49</v>
       </c>
       <c r="D125">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="E125">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="F125">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>2023-10-03 21:33:12</v>
+        <v>2023-10-05 13:48:02</v>
       </c>
       <c r="B126">
-        <v>18.69</v>
+        <v>20.39</v>
       </c>
       <c r="C126">
-        <v>27.29</v>
+        <v>29.51</v>
       </c>
       <c r="D126">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="E126">
         <v>18.6</v>
       </c>
       <c r="F126">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>2023-10-04 01:14:04</v>
+        <v>2023-10-05 17:27:16</v>
       </c>
       <c r="B127">
-        <v>18.78</v>
+        <v>20</v>
       </c>
       <c r="C127">
-        <v>29.88</v>
+        <v>29.51</v>
       </c>
       <c r="D127">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="E127">
-        <v>18</v>
+        <v>18.8</v>
       </c>
       <c r="F127">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>2023-10-04 04:55:44</v>
+        <v>2023-10-05 21:07:23</v>
       </c>
       <c r="B128">
-        <v>18.68</v>
+        <v>19.89</v>
       </c>
       <c r="C128">
-        <v>29.87</v>
+        <v>29.51</v>
       </c>
       <c r="D128">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="E128">
-        <v>17.7</v>
+        <v>18.89</v>
       </c>
       <c r="F128">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>2023-10-04 08:35:19</v>
+        <v>2023-10-06 00:45:29</v>
       </c>
       <c r="B129">
-        <v>18.57</v>
+        <v>19.89</v>
       </c>
       <c r="C129">
-        <v>30.01</v>
+        <v>27.71</v>
       </c>
       <c r="D129">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="E129">
-        <v>17.7</v>
+        <v>18.8</v>
       </c>
       <c r="F129">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>2023-10-04 12:14:59</v>
+        <v>2023-10-06 04:25:35</v>
       </c>
       <c r="B130">
-        <v>18.67</v>
+        <v>19.2</v>
       </c>
       <c r="C130">
-        <v>29.37</v>
+        <v>26.07</v>
       </c>
       <c r="D130">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="E130">
-        <v>17.7</v>
+        <v>18.7</v>
       </c>
       <c r="F130">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>2023-10-04 15:58:16</v>
+        <v>2023-10-06 08:05:50</v>
       </c>
       <c r="B131">
-        <v>18.57</v>
+        <v>19.2</v>
       </c>
       <c r="C131">
-        <v>29.51</v>
+        <v>29.16</v>
       </c>
       <c r="D131">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="E131">
-        <v>17.7</v>
+        <v>18.7</v>
       </c>
       <c r="F131">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>2023-10-04 19:35:48</v>
+        <v>2023-10-06 11:44:57</v>
       </c>
       <c r="B132">
-        <v>18.48</v>
+        <v>20.3</v>
       </c>
       <c r="C132">
-        <v>29.51</v>
+        <v>29.45</v>
       </c>
       <c r="D132">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E132">
-        <v>17.3</v>
+        <v>18.8</v>
       </c>
       <c r="F132">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>2023-10-04 23:13:14</v>
+        <v>2023-10-06 15:25:42</v>
       </c>
       <c r="B133">
-        <v>20.74</v>
+        <v>19.79</v>
       </c>
       <c r="C133">
-        <v>29.44</v>
+        <v>28.8</v>
       </c>
       <c r="D133">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="E133">
-        <v>18</v>
+        <v>18.8</v>
       </c>
       <c r="F133">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>2023-10-05 02:50:09</v>
+        <v>2023-10-06 19:05:52</v>
       </c>
       <c r="B134">
-        <v>20.64</v>
+        <v>20.3</v>
       </c>
       <c r="C134">
-        <v>28.93</v>
+        <v>28.44</v>
       </c>
       <c r="D134">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E134">
-        <v>18.1</v>
+        <v>20</v>
       </c>
       <c r="F134">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>2023-10-05 06:28:10</v>
+        <v>2023-10-06 22:45:51</v>
       </c>
       <c r="B135">
-        <v>20.63</v>
+        <v>20.28</v>
       </c>
       <c r="C135">
-        <v>28.5</v>
+        <v>28.51</v>
       </c>
       <c r="D135">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E135">
-        <v>18.2</v>
+        <v>20</v>
       </c>
       <c r="F135">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>2023-10-05 10:07:01</v>
+        <v>2023-10-07 02:24:19</v>
       </c>
       <c r="B136">
-        <v>20.63</v>
+        <v>20.18</v>
       </c>
       <c r="C136">
-        <v>26.49</v>
+        <v>28.8</v>
       </c>
       <c r="D136">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E136">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="F136">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>2023-10-05 13:48:02</v>
+        <v>2023-10-07 06:00:28</v>
       </c>
       <c r="B137">
-        <v>20.39</v>
+        <v>20.07</v>
       </c>
       <c r="C137">
-        <v>29.51</v>
+        <v>29.93</v>
       </c>
       <c r="D137">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E137">
-        <v>18.6</v>
+        <v>19</v>
       </c>
       <c r="F137">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>2023-10-05 17:27:16</v>
+        <v>2023-10-07 09:36:09</v>
       </c>
       <c r="B138">
-        <v>20</v>
+        <v>20.07</v>
       </c>
       <c r="C138">
-        <v>29.51</v>
+        <v>29.5</v>
       </c>
       <c r="D138">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E138">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="F138">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>2023-10-05 21:07:23</v>
+        <v>2023-10-07 13:13:50</v>
       </c>
       <c r="B139">
-        <v>19.89</v>
+        <v>19.67</v>
       </c>
       <c r="C139">
-        <v>29.51</v>
+        <v>29.5</v>
       </c>
       <c r="D139">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="E139">
-        <v>18.89</v>
+        <v>19</v>
       </c>
       <c r="F139">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>2023-10-06 00:45:29</v>
+        <v>2023-10-07 16:50:08</v>
       </c>
       <c r="B140">
-        <v>19.89</v>
+        <v>18.5</v>
       </c>
       <c r="C140">
-        <v>27.71</v>
+        <v>29.5</v>
       </c>
       <c r="D140">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="E140">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="F140">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>2023-10-06 04:25:35</v>
+        <v>2023-10-07 20:27:50</v>
       </c>
       <c r="B141">
-        <v>19.2</v>
+        <v>18.89</v>
       </c>
       <c r="C141">
-        <v>26.07</v>
+        <v>29.93</v>
       </c>
       <c r="D141">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="E141">
-        <v>18.7</v>
+        <v>19</v>
       </c>
       <c r="F141">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>2023-10-06 08:05:50</v>
+        <v>2023-10-08 00:05:16</v>
       </c>
       <c r="B142">
-        <v>19.2</v>
+        <v>18.88</v>
       </c>
       <c r="C142">
-        <v>29.16</v>
+        <v>30.01</v>
       </c>
       <c r="D142">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="E142">
-        <v>18.7</v>
+        <v>19</v>
       </c>
       <c r="F142">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>2023-10-06 11:44:57</v>
+        <v>2023-10-08 03:41:51</v>
       </c>
       <c r="B143">
-        <v>20.3</v>
+        <v>18.89</v>
       </c>
       <c r="C143">
-        <v>29.45</v>
+        <v>28.49</v>
       </c>
       <c r="D143">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E143">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="F143">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>2023-10-06 15:25:42</v>
+        <v>2023-10-08 07:20:42</v>
       </c>
       <c r="B144">
-        <v>19.79</v>
+        <v>18.89</v>
       </c>
       <c r="C144">
-        <v>28.8</v>
+        <v>28.78</v>
       </c>
       <c r="D144">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E144">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="F144">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>2023-10-06 19:05:52</v>
+        <v>2023-10-08 10:58:59</v>
       </c>
       <c r="B145">
-        <v>20.3</v>
+        <v>18.8</v>
       </c>
       <c r="C145">
-        <v>28.44</v>
+        <v>26.55</v>
       </c>
       <c r="D145">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E145">
-        <v>20</v>
+        <v>17.8</v>
       </c>
       <c r="F145">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>2023-10-06 22:45:51</v>
+        <v>2023-10-08 14:39:02</v>
       </c>
       <c r="B146">
-        <v>20.28</v>
+        <v>18.5</v>
       </c>
       <c r="C146">
-        <v>28.51</v>
+        <v>30</v>
       </c>
       <c r="D146">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E146">
-        <v>20</v>
+        <v>18.1</v>
       </c>
       <c r="F146">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>2023-10-07 02:24:19</v>
+        <v>2023-10-08 18:19:47</v>
       </c>
       <c r="B147">
-        <v>20.18</v>
+        <v>19.95</v>
       </c>
       <c r="C147">
-        <v>28.8</v>
+        <v>29.57</v>
       </c>
       <c r="D147">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E147">
-        <v>18.7</v>
+        <v>18.1</v>
       </c>
       <c r="F147">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>2023-10-07 06:00:28</v>
+        <v>2023-10-08 21:58:34</v>
       </c>
       <c r="B148">
-        <v>20.07</v>
+        <v>19.93</v>
       </c>
       <c r="C148">
-        <v>29.93</v>
+        <v>28.78</v>
       </c>
       <c r="D148">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E148">
-        <v>19</v>
+        <v>18.39</v>
       </c>
       <c r="F148">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>2023-10-07 09:36:09</v>
+        <v>2023-10-09 01:35:15</v>
       </c>
       <c r="B149">
-        <v>20.07</v>
+        <v>19.95</v>
       </c>
       <c r="C149">
-        <v>29.5</v>
+        <v>30.15</v>
       </c>
       <c r="D149">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E149">
-        <v>19</v>
+        <v>18.39</v>
       </c>
       <c r="F149">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>2023-10-07 13:13:50</v>
+        <v>2023-10-09 05:11:04</v>
       </c>
       <c r="B150">
-        <v>19.67</v>
+        <v>19.95</v>
       </c>
       <c r="C150">
-        <v>29.5</v>
+        <v>30.15</v>
       </c>
       <c r="D150">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E150">
-        <v>19</v>
+        <v>18.39</v>
       </c>
       <c r="F150">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>2023-10-07 16:50:08</v>
+        <v>2023-10-09 05:17:46</v>
       </c>
       <c r="B151">
-        <v>18.5</v>
+        <v>19.95</v>
       </c>
       <c r="C151">
-        <v>29.5</v>
+        <v>30.15</v>
       </c>
       <c r="D151">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E151">
-        <v>19</v>
+        <v>18.39</v>
       </c>
       <c r="F151">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>2023-10-07 20:27:50</v>
+        <v>2023-10-09 08:58:14</v>
       </c>
       <c r="B152">
-        <v>18.89</v>
+        <v>19.95</v>
       </c>
       <c r="C152">
-        <v>29.93</v>
+        <v>30.07</v>
       </c>
       <c r="D152">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E152">
-        <v>19</v>
+        <v>18.39</v>
       </c>
       <c r="F152">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>2023-10-08 00:05:16</v>
+        <v>2023-10-09 12:38:07</v>
       </c>
       <c r="B153">
-        <v>18.88</v>
+        <v>19.85</v>
       </c>
       <c r="C153">
-        <v>30.01</v>
+        <v>27.27</v>
       </c>
       <c r="D153">
         <v>189</v>
       </c>
       <c r="E153">
-        <v>19</v>
+        <v>18.39</v>
       </c>
       <c r="F153">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>2023-10-08 03:41:51</v>
+        <v>2023-10-09 16:18:15</v>
       </c>
       <c r="B154">
-        <v>18.89</v>
+        <v>19.52</v>
       </c>
       <c r="C154">
-        <v>28.49</v>
+        <v>31.08</v>
       </c>
       <c r="D154">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E154">
-        <v>19</v>
+        <v>17.8</v>
       </c>
       <c r="F154">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>2023-10-08 07:20:42</v>
+        <v>2023-10-09 19:58:49</v>
       </c>
       <c r="B155">
-        <v>18.89</v>
+        <v>19.73</v>
       </c>
       <c r="C155">
-        <v>28.78</v>
+        <v>31.44</v>
       </c>
       <c r="D155">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="E155">
-        <v>19</v>
+        <v>17.8</v>
       </c>
       <c r="F155">
         <v>13</v>
@@ -3382,99 +3382,99 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>2023-10-08 10:58:59</v>
+        <v>2023-10-09 23:36:35</v>
       </c>
       <c r="B156">
-        <v>18.8</v>
+        <v>20.65</v>
       </c>
       <c r="C156">
-        <v>26.55</v>
+        <v>31.23</v>
       </c>
       <c r="D156">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E156">
-        <v>17.8</v>
+        <v>18.1</v>
       </c>
       <c r="F156">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>2023-10-08 14:39:02</v>
+        <v>2023-10-10 03:07:30</v>
       </c>
       <c r="B157">
-        <v>18.5</v>
+        <v>20.55</v>
       </c>
       <c r="C157">
-        <v>30</v>
+        <v>30.79</v>
       </c>
       <c r="D157">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E157">
-        <v>18.1</v>
+        <v>18.7</v>
       </c>
       <c r="F157">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>2023-10-08 18:19:47</v>
+        <v>2023-10-10 03:13:56</v>
       </c>
       <c r="B158">
-        <v>19.95</v>
+        <v>20.55</v>
       </c>
       <c r="C158">
-        <v>29.57</v>
+        <v>28.78</v>
       </c>
       <c r="D158">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E158">
-        <v>18.1</v>
+        <v>18.7</v>
       </c>
       <c r="F158">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>2023-10-08 21:58:34</v>
+        <v>2023-10-10 06:49:02</v>
       </c>
       <c r="B159">
-        <v>19.93</v>
+        <v>20.65</v>
       </c>
       <c r="C159">
-        <v>28.78</v>
+        <v>29.97</v>
       </c>
       <c r="D159">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="E159">
-        <v>18.39</v>
+        <v>18.7</v>
       </c>
       <c r="F159">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>2023-10-09 01:35:15</v>
+        <v>2023-10-10 10:29:26</v>
       </c>
       <c r="B160">
-        <v>19.95</v>
+        <v>20.42</v>
       </c>
       <c r="C160">
-        <v>30.15</v>
+        <v>28.29</v>
       </c>
       <c r="D160">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E160">
-        <v>18.39</v>
+        <v>18.7</v>
       </c>
       <c r="F160">
         <v>12</v>
@@ -3482,119 +3482,119 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>2023-10-09 05:11:04</v>
+        <v>2023-10-10 14:06:18</v>
       </c>
       <c r="B161">
-        <v>19.95</v>
+        <v>20.7</v>
       </c>
       <c r="C161">
-        <v>30.15</v>
+        <v>31.87</v>
       </c>
       <c r="D161">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E161">
-        <v>18.39</v>
+        <v>18.8</v>
       </c>
       <c r="F161">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>2023-10-09 05:17:46</v>
+        <v>2023-10-10 17:43:27</v>
       </c>
       <c r="B162">
-        <v>19.95</v>
+        <v>20.45</v>
       </c>
       <c r="C162">
-        <v>30.15</v>
+        <v>31.87</v>
       </c>
       <c r="D162">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E162">
-        <v>18.39</v>
+        <v>18.7</v>
       </c>
       <c r="F162">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>2023-10-09 08:58:14</v>
+        <v>2023-10-10 17:49:56</v>
       </c>
       <c r="B163">
-        <v>19.95</v>
+        <v>20.45</v>
       </c>
       <c r="C163">
-        <v>30.07</v>
+        <v>31.87</v>
       </c>
       <c r="D163">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E163">
-        <v>18.39</v>
+        <v>18.7</v>
       </c>
       <c r="F163">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>2023-10-09 12:38:07</v>
+        <v>2023-10-10 21:30:25</v>
       </c>
       <c r="B164">
-        <v>19.85</v>
+        <v>20.05</v>
       </c>
       <c r="C164">
-        <v>27.27</v>
+        <v>27.71</v>
       </c>
       <c r="D164">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E164">
-        <v>18.39</v>
+        <v>18.7</v>
       </c>
       <c r="F164">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>2023-10-09 16:18:15</v>
+        <v>2023-10-11 01:09:35</v>
       </c>
       <c r="B165">
-        <v>19.52</v>
+        <v>20</v>
       </c>
       <c r="C165">
-        <v>31.08</v>
+        <v>31.06</v>
       </c>
       <c r="D165">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E165">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="F165">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>2023-10-09 19:58:49</v>
+        <v>2023-10-11 04:49:55</v>
       </c>
       <c r="B166">
-        <v>19.73</v>
+        <v>20.05</v>
       </c>
       <c r="C166">
-        <v>31.44</v>
+        <v>28.74</v>
       </c>
       <c r="D166">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E166">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="F166">
         <v>13</v>
@@ -3602,19 +3602,19 @@
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>2023-10-09 23:36:35</v>
+        <v>2023-10-11 08:29:00</v>
       </c>
       <c r="B167">
-        <v>20.65</v>
+        <v>19.95</v>
       </c>
       <c r="C167">
-        <v>31.23</v>
+        <v>32.46</v>
       </c>
       <c r="D167">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E167">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="F167">
         <v>14</v>
@@ -3622,59 +3622,59 @@
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>2023-10-10 03:07:30</v>
+        <v>2023-10-11 12:08:55</v>
       </c>
       <c r="B168">
-        <v>20.55</v>
+        <v>20.3</v>
       </c>
       <c r="C168">
-        <v>30.79</v>
+        <v>35.53</v>
       </c>
       <c r="D168">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E168">
-        <v>18.7</v>
+        <v>18.3</v>
       </c>
       <c r="F168">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>2023-10-10 03:13:56</v>
+        <v>2023-10-11 15:48:24</v>
       </c>
       <c r="B169">
-        <v>20.55</v>
+        <v>20.3</v>
       </c>
       <c r="C169">
-        <v>28.78</v>
+        <v>29.18</v>
       </c>
       <c r="D169">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E169">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="F169">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>2023-10-10 06:49:02</v>
+        <v>2023-10-11 19:28:54</v>
       </c>
       <c r="B170">
-        <v>20.65</v>
+        <v>20.25</v>
       </c>
       <c r="C170">
-        <v>29.97</v>
+        <v>31.37</v>
       </c>
       <c r="D170">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E170">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="F170">
         <v>9</v>
@@ -3682,39 +3682,39 @@
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>2023-10-10 10:29:26</v>
+        <v>2023-10-11 23:09:27</v>
       </c>
       <c r="B171">
-        <v>20.42</v>
+        <v>21.27</v>
       </c>
       <c r="C171">
-        <v>28.29</v>
+        <v>31.44</v>
       </c>
       <c r="D171">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E171">
-        <v>18.7</v>
+        <v>19.7</v>
       </c>
       <c r="F171">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>2023-10-10 14:06:18</v>
+        <v>2023-10-12 02:48:33</v>
       </c>
       <c r="B172">
-        <v>20.7</v>
+        <v>21.59</v>
       </c>
       <c r="C172">
-        <v>31.87</v>
+        <v>32.46</v>
       </c>
       <c r="D172">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E172">
-        <v>18.8</v>
+        <v>19.8</v>
       </c>
       <c r="F172">
         <v>8</v>
@@ -3722,19 +3722,19 @@
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>2023-10-10 17:43:27</v>
+        <v>2023-10-12 06:28:56</v>
       </c>
       <c r="B173">
-        <v>20.45</v>
+        <v>21.59</v>
       </c>
       <c r="C173">
-        <v>31.87</v>
+        <v>31.03</v>
       </c>
       <c r="D173">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E173">
-        <v>18.7</v>
+        <v>19.8</v>
       </c>
       <c r="F173">
         <v>8</v>
@@ -3742,19 +3742,19 @@
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>2023-10-10 17:49:56</v>
+        <v>2023-10-12 10:08:54</v>
       </c>
       <c r="B174">
-        <v>20.45</v>
+        <v>21.59</v>
       </c>
       <c r="C174">
-        <v>31.87</v>
+        <v>32.71</v>
       </c>
       <c r="D174">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E174">
-        <v>18.7</v>
+        <v>19.8</v>
       </c>
       <c r="F174">
         <v>8</v>
@@ -3762,19 +3762,19 @@
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>2023-10-10 21:30:25</v>
+        <v>2023-10-12 13:47:38</v>
       </c>
       <c r="B175">
-        <v>20.05</v>
+        <v>21.49</v>
       </c>
       <c r="C175">
-        <v>27.71</v>
+        <v>32.71</v>
       </c>
       <c r="D175">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E175">
-        <v>18.7</v>
+        <v>19.8</v>
       </c>
       <c r="F175">
         <v>8</v>
@@ -3782,139 +3782,139 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>2023-10-11 01:09:35</v>
+        <v>2023-10-12 17:19:20</v>
       </c>
       <c r="B176">
-        <v>20</v>
+        <v>21.07</v>
       </c>
       <c r="C176">
-        <v>31.06</v>
+        <v>29.2</v>
       </c>
       <c r="D176">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E176">
-        <v>18</v>
+        <v>19.39</v>
       </c>
       <c r="F176">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>2023-10-11 04:49:55</v>
+        <v>2023-10-12 20:59:46</v>
       </c>
       <c r="B177">
-        <v>20.05</v>
+        <v>21.27</v>
       </c>
       <c r="C177">
-        <v>28.74</v>
+        <v>30.66</v>
       </c>
       <c r="D177">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E177">
-        <v>18</v>
+        <v>19.6</v>
       </c>
       <c r="F177">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>2023-10-11 08:29:00</v>
+        <v>2023-10-13 00:40:16</v>
       </c>
       <c r="B178">
-        <v>19.95</v>
+        <v>20.5</v>
       </c>
       <c r="C178">
-        <v>32.46</v>
+        <v>29.35</v>
       </c>
       <c r="D178">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E178">
-        <v>18.2</v>
+        <v>19.6</v>
       </c>
       <c r="F178">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>2023-10-11 12:08:55</v>
+        <v>2023-10-13 04:18:51</v>
       </c>
       <c r="B179">
-        <v>20.3</v>
+        <v>21.37</v>
       </c>
       <c r="C179">
-        <v>35.53</v>
+        <v>29.94</v>
       </c>
       <c r="D179">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E179">
-        <v>18.3</v>
+        <v>19.8</v>
       </c>
       <c r="F179">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>2023-10-11 15:48:24</v>
+        <v>2023-10-13 07:55:22</v>
       </c>
       <c r="B180">
-        <v>20.3</v>
+        <v>21.47</v>
       </c>
       <c r="C180">
-        <v>29.18</v>
+        <v>31.04</v>
       </c>
       <c r="D180">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E180">
-        <v>18.5</v>
+        <v>19.8</v>
       </c>
       <c r="F180">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>2023-10-11 19:28:54</v>
+        <v>2023-10-13 11:34:29</v>
       </c>
       <c r="B181">
-        <v>20.25</v>
+        <v>21.36</v>
       </c>
       <c r="C181">
-        <v>31.37</v>
+        <v>32.28</v>
       </c>
       <c r="D181">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E181">
-        <v>19.1</v>
+        <v>19.8</v>
       </c>
       <c r="F181">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>2023-10-11 23:09:27</v>
+        <v>2023-10-13 15:15:18</v>
       </c>
       <c r="B182">
-        <v>21.27</v>
+        <v>20.9</v>
       </c>
       <c r="C182">
-        <v>31.44</v>
+        <v>31.04</v>
       </c>
       <c r="D182">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E182">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="F182">
         <v>8</v>
@@ -3922,16 +3922,16 @@
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>2023-10-12 02:48:33</v>
+        <v>2023-10-13 15:20:57</v>
       </c>
       <c r="B183">
-        <v>21.59</v>
+        <v>20.9</v>
       </c>
       <c r="C183">
-        <v>32.46</v>
+        <v>31.04</v>
       </c>
       <c r="D183">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="E183">
         <v>19.8</v>
@@ -3942,279 +3942,279 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>2023-10-12 06:28:56</v>
+        <v>2023-10-13 18:57:59</v>
       </c>
       <c r="B184">
-        <v>21.59</v>
+        <v>20.53</v>
       </c>
       <c r="C184">
-        <v>31.03</v>
+        <v>32.2</v>
       </c>
       <c r="D184">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="E184">
-        <v>19.8</v>
+        <v>19</v>
       </c>
       <c r="F184">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>2023-10-12 10:08:54</v>
+        <v>2023-10-13 22:32:42</v>
       </c>
       <c r="B185">
-        <v>21.59</v>
+        <v>19.89</v>
       </c>
       <c r="C185">
-        <v>32.71</v>
+        <v>31.33</v>
       </c>
       <c r="D185">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="E185">
-        <v>19.8</v>
+        <v>19</v>
       </c>
       <c r="F185">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>2023-10-12 13:47:38</v>
+        <v>2023-10-14 02:11:18</v>
       </c>
       <c r="B186">
-        <v>21.49</v>
+        <v>19.69</v>
       </c>
       <c r="C186">
-        <v>32.71</v>
+        <v>31.26</v>
       </c>
       <c r="D186">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="E186">
-        <v>19.8</v>
+        <v>18.7</v>
       </c>
       <c r="F186">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>2023-10-12 17:19:20</v>
+        <v>2023-10-14 05:50:08</v>
       </c>
       <c r="B187">
-        <v>21.07</v>
+        <v>19.69</v>
       </c>
       <c r="C187">
-        <v>29.2</v>
+        <v>31.93</v>
       </c>
       <c r="D187">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E187">
-        <v>19.39</v>
+        <v>18.7</v>
       </c>
       <c r="F187">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>2023-10-12 20:59:46</v>
+        <v>2023-10-14 09:30:48</v>
       </c>
       <c r="B188">
-        <v>21.27</v>
+        <v>19.59</v>
       </c>
       <c r="C188">
-        <v>30.66</v>
+        <v>32.36</v>
       </c>
       <c r="D188">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E188">
-        <v>19.6</v>
+        <v>18.2</v>
       </c>
       <c r="F188">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>2023-10-13 00:40:16</v>
+        <v>2023-10-14 13:10:41</v>
       </c>
       <c r="B189">
-        <v>20.5</v>
+        <v>19.39</v>
       </c>
       <c r="C189">
-        <v>29.35</v>
+        <v>33.75</v>
       </c>
       <c r="D189">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E189">
-        <v>19.6</v>
+        <v>18.2</v>
       </c>
       <c r="F189">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>2023-10-13 04:18:51</v>
+        <v>2023-10-14 16:50:46</v>
       </c>
       <c r="B190">
-        <v>21.37</v>
+        <v>19.79</v>
       </c>
       <c r="C190">
-        <v>29.94</v>
+        <v>30.9</v>
       </c>
       <c r="D190">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="E190">
-        <v>19.8</v>
+        <v>18.2</v>
       </c>
       <c r="F190">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>2023-10-13 07:55:22</v>
+        <v>2023-10-14 20:33:02</v>
       </c>
       <c r="B191">
-        <v>21.47</v>
+        <v>19.89</v>
       </c>
       <c r="C191">
-        <v>31.04</v>
+        <v>30.54</v>
       </c>
       <c r="D191">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="E191">
-        <v>19.8</v>
+        <v>18.2</v>
       </c>
       <c r="F191">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>2023-10-13 11:34:29</v>
+        <v>2023-10-15 00:12:34</v>
       </c>
       <c r="B192">
-        <v>21.36</v>
+        <v>19.79</v>
       </c>
       <c r="C192">
-        <v>32.28</v>
+        <v>30.32</v>
       </c>
       <c r="D192">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="E192">
-        <v>19.8</v>
+        <v>18.2</v>
       </c>
       <c r="F192">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>2023-10-13 15:15:18</v>
+        <v>2023-10-15 03:51:03</v>
       </c>
       <c r="B193">
-        <v>20.9</v>
+        <v>18.8</v>
       </c>
       <c r="C193">
-        <v>31.04</v>
+        <v>30.9</v>
       </c>
       <c r="D193">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="E193">
-        <v>19.8</v>
+        <v>18.2</v>
       </c>
       <c r="F193">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>2023-10-13 15:20:57</v>
+        <v>2023-10-15 07:28:51</v>
       </c>
       <c r="B194">
-        <v>20.9</v>
+        <v>18.5</v>
       </c>
       <c r="C194">
-        <v>31.04</v>
+        <v>30.9</v>
       </c>
       <c r="D194">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="E194">
-        <v>19.8</v>
+        <v>18.2</v>
       </c>
       <c r="F194">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>2023-10-13 18:57:59</v>
+        <v>2023-10-15 11:05:19</v>
       </c>
       <c r="B195">
-        <v>20.53</v>
+        <v>20</v>
       </c>
       <c r="C195">
-        <v>32.2</v>
+        <v>30.82</v>
       </c>
       <c r="D195">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E195">
-        <v>19</v>
+        <v>17.8</v>
       </c>
       <c r="F195">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>2023-10-13 22:32:42</v>
+        <v>2023-10-15 14:43:04</v>
       </c>
       <c r="B196">
-        <v>19.89</v>
+        <v>20</v>
       </c>
       <c r="C196">
-        <v>31.33</v>
+        <v>30.9</v>
       </c>
       <c r="D196">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E196">
-        <v>19</v>
+        <v>18.2</v>
       </c>
       <c r="F196">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>2023-10-14 02:11:18</v>
+        <v>2023-10-15 18:22:54</v>
       </c>
       <c r="B197">
-        <v>19.69</v>
+        <v>19.79</v>
       </c>
       <c r="C197">
-        <v>31.26</v>
+        <v>33.75</v>
       </c>
       <c r="D197">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E197">
-        <v>18.7</v>
+        <v>18.2</v>
       </c>
       <c r="F197">
         <v>13</v>
@@ -4222,242 +4222,302 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>2023-10-14 05:50:08</v>
+        <v>2023-10-15 22:04:21</v>
       </c>
       <c r="B198">
-        <v>19.69</v>
+        <v>19.89</v>
       </c>
       <c r="C198">
-        <v>31.93</v>
+        <v>33.75</v>
       </c>
       <c r="D198">
         <v>193</v>
       </c>
       <c r="E198">
-        <v>18.7</v>
+        <v>18.3</v>
       </c>
       <c r="F198">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>2023-10-14 09:30:48</v>
+        <v>2023-10-16 01:44:20</v>
       </c>
       <c r="B199">
-        <v>19.59</v>
+        <v>19.77</v>
       </c>
       <c r="C199">
-        <v>32.36</v>
+        <v>32.86</v>
       </c>
       <c r="D199">
         <v>193</v>
       </c>
       <c r="E199">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="F199">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>2023-10-14 13:10:41</v>
+        <v>2023-10-16 05:23:31</v>
       </c>
       <c r="B200">
-        <v>19.39</v>
+        <v>19.77</v>
       </c>
       <c r="C200">
-        <v>33.75</v>
+        <v>32.79</v>
       </c>
       <c r="D200">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E200">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="F200">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>2023-10-14 16:50:46</v>
+        <v>2023-10-16 09:02:05</v>
       </c>
       <c r="B201">
-        <v>19.79</v>
+        <v>19.47</v>
       </c>
       <c r="C201">
-        <v>30.9</v>
+        <v>33.02</v>
       </c>
       <c r="D201">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E201">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="F201">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>2023-10-14 20:33:02</v>
+        <v>2023-10-16 12:43:19</v>
       </c>
       <c r="B202">
-        <v>19.89</v>
+        <v>19.36</v>
       </c>
       <c r="C202">
-        <v>30.54</v>
+        <v>31.51</v>
       </c>
       <c r="D202">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E202">
-        <v>18.2</v>
+        <v>18.39</v>
       </c>
       <c r="F202">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>2023-10-15 00:12:34</v>
+        <v>2023-10-16 16:22:40</v>
       </c>
       <c r="B203">
-        <v>19.79</v>
+        <v>19.57</v>
       </c>
       <c r="C203">
-        <v>30.32</v>
+        <v>33.38</v>
       </c>
       <c r="D203">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E203">
-        <v>18.2</v>
+        <v>18.8</v>
       </c>
       <c r="F203">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>2023-10-15 03:51:03</v>
+        <v>2023-10-16 20:00:41</v>
       </c>
       <c r="B204">
-        <v>18.8</v>
+        <v>19.47</v>
       </c>
       <c r="C204">
-        <v>30.9</v>
+        <v>32.15</v>
       </c>
       <c r="D204">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E204">
-        <v>18.2</v>
+        <v>18.7</v>
       </c>
       <c r="F204">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>2023-10-15 07:28:51</v>
+        <v>2023-10-16 23:38:26</v>
       </c>
       <c r="B205">
-        <v>18.5</v>
+        <v>19.39</v>
       </c>
       <c r="C205">
-        <v>30.9</v>
+        <v>30.22</v>
       </c>
       <c r="D205">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="E205">
-        <v>18.2</v>
+        <v>18.7</v>
       </c>
       <c r="F205">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>2023-10-15 11:05:19</v>
+        <v>2023-10-17 03:16:20</v>
       </c>
       <c r="B206">
-        <v>20</v>
+        <v>19.39</v>
       </c>
       <c r="C206">
-        <v>30.82</v>
+        <v>29.39</v>
       </c>
       <c r="D206">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E206">
-        <v>17.8</v>
+        <v>18.7</v>
       </c>
       <c r="F206">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>2023-10-15 14:43:04</v>
+        <v>2023-10-17 06:54:57</v>
       </c>
       <c r="B207">
-        <v>20</v>
+        <v>19.39</v>
       </c>
       <c r="C207">
-        <v>30.9</v>
+        <v>29.98</v>
       </c>
       <c r="D207">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E207">
-        <v>18.2</v>
+        <v>18.7</v>
       </c>
       <c r="F207">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>2023-10-15 18:22:54</v>
+        <v>2023-10-17 07:01:12</v>
       </c>
       <c r="B208">
-        <v>19.79</v>
+        <v>19.39</v>
       </c>
       <c r="C208">
-        <v>33.75</v>
+        <v>29.98</v>
       </c>
       <c r="D208">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E208">
-        <v>18.2</v>
+        <v>18.7</v>
       </c>
       <c r="F208">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>2023-10-15 22:04:21</v>
+        <v>2023-10-17 10:38:04</v>
       </c>
       <c r="B209">
-        <v>19.89</v>
+        <v>19.39</v>
       </c>
       <c r="C209">
-        <v>33.75</v>
+        <v>29.9</v>
       </c>
       <c r="D209">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E209">
-        <v>18.3</v>
+        <v>18.7</v>
       </c>
       <c r="F209">
-        <v>12</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>2023-10-17 14:17:49</v>
+      </c>
+      <c r="B210">
+        <v>19.2</v>
+      </c>
+      <c r="C210">
+        <v>33.63</v>
+      </c>
+      <c r="D210">
+        <v>178</v>
+      </c>
+      <c r="E210">
+        <v>18.89</v>
+      </c>
+      <c r="F210">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>2023-10-17 14:22:42</v>
+      </c>
+      <c r="B211">
+        <v>19.2</v>
+      </c>
+      <c r="C211">
+        <v>33.63</v>
+      </c>
+      <c r="D211">
+        <v>178</v>
+      </c>
+      <c r="E211">
+        <v>18.89</v>
+      </c>
+      <c r="F211">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>2023-10-17 18:01:23</v>
+      </c>
+      <c r="B212">
+        <v>19.39</v>
+      </c>
+      <c r="C212">
+        <v>32.9</v>
+      </c>
+      <c r="D212">
+        <v>181</v>
+      </c>
+      <c r="E212">
+        <v>18.7</v>
+      </c>
+      <c r="F212">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4469,7 +4529,7 @@
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F209"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F212"/>
   </ignoredErrors>
 </worksheet>
 </file>